--- a/GATEWAY/A1#111#WEBCOMNETXX/WebComNet/GesFisioInCloud/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#WEBCOMNETXX/WebComNet/GesFisioInCloud/1.0.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GATEWAY\A1#111#WEBCOMNETXX\WebComNet\GesFisioInCloud\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB9FB4-8616-414E-AB7D-4D22D74E0236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC06375B-0529-48CA-8A3E-DB437C514195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="463">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1782,30 +1782,6 @@
   </si>
   <si>
     <t>Il software mostra l'errore e chiede di riprovare in seguito</t>
-  </si>
-  <si>
-    <t>Il codice fiscale viene sempre convertito in maiuscolo prima di essere inserito nel CDA2. Non è possibile generare un documento con CF in minuscolo.</t>
-  </si>
-  <si>
-    <t>Il campo "Comune di residenza" è obbligatorio nell'interfaccia utente. Non è possibile salvare l'anagrafica paziente senza specificare il comune.</t>
-  </si>
-  <si>
-    <t>I campi "Nome" e "Cognome" sono entrambi obbligatori nell'interfaccia utente. Non è possibile creare un paziente senza nome.</t>
-  </si>
-  <si>
-    <t>Il campo "Sesso" è obbligatorio e i valori solo selezionati da una lista con valori corretti</t>
-  </si>
-  <si>
-    <t>L'applicativo gestisce esclusivamente prestazioni fisioterapiche ad accesso diretto, senza prescrizione medica. L'elemento inFulfillmentOf (NRE) non viene mai generato in quanto non applicabile al contesto operativo.</t>
-  </si>
-  <si>
-    <t>Il codice della prestazione è obbligatorio nell'interfaccia utente. L'operatore deve selezionare la prestazione da un elenco predefinito prima di poter generare il referto. Non è possibile creare un CDA2 senza act/code nella sezione Prestazioni.</t>
-  </si>
-  <si>
-    <t>La sezione "Referto" è generata automaticamente dall'applicativo ed è obbligatoria per completare il documento. Non è possibile generare un CDA2 senza la sezione Referto.</t>
-  </si>
-  <si>
-    <t>La sezione "Quesito Diagnostico" è generata automaticamente dall'applicativo ed è obbligatoria per completare il documento. Non è possibile generare un CDA2 senza la sezione Quesito Diagnostico.</t>
   </si>
   <si>
     <t xml:space="preserve">L'applicativo inserisce in autonomia nel cda   &lt;signatureCode code="S" /&gt;  il valore S  se firmato digitalmente.  Se il medico non firma digitalmente  non verrà creato nessun cda. </t>
@@ -1994,7 +1970,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2011,12 +1987,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2500,39 +2470,10 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2555,6 +2496,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{565105C8-FFD6-432C-8B2E-BD1D172FCD26}"/>
@@ -4005,10 +3975,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="M120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R165" sqref="R165"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4050,14 +4020,14 @@
       <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="D2" s="74"/>
+      <c r="D2" s="61"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -4078,14 +4048,14 @@
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="69" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="61"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -4106,12 +4076,12 @@
       <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -4133,12 +4103,12 @@
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="61"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -4159,8 +4129,8 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -4480,64 +4450,64 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="56" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="49">
+    <row r="15" spans="1:23" s="74" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="70">
         <v>32</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="B15" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="73">
         <v>46041</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="74" t="s">
         <v>451</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="54" t="s">
+      <c r="N15" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="67" t="s">
+      <c r="O15" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="P15" s="54" t="s">
+      <c r="P15" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="Q15" s="54" t="s">
+      <c r="Q15" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="S15" s="54" t="s">
+      <c r="S15" s="75" t="s">
         <v>453</v>
       </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="54" t="s">
+      <c r="T15" s="75"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="75" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4800,64 +4770,64 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="56" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="49">
+    <row r="23" spans="1:23" s="74" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="70">
         <v>40</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="73">
         <v>46041</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="78" t="s">
         <v>454</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="54" t="s">
+      <c r="N23" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="67" t="s">
+      <c r="O23" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="P23" s="54" t="s">
+      <c r="P23" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="Q23" s="54" t="s">
+      <c r="Q23" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="R23" s="54" t="s">
+      <c r="R23" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="54" t="s">
+      <c r="S23" s="75" t="s">
         <v>457</v>
       </c>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="54" t="s">
+      <c r="T23" s="75"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="75" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5128,58 +5098,58 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="56" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49">
+    <row r="31" spans="1:23" s="74" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="70">
         <v>48</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="73">
         <v>46041</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54" t="s">
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54" t="s">
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="54" t="s">
+      <c r="N31" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="54" t="s">
+      <c r="O31" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="P31" s="54" t="s">
+      <c r="P31" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="Q31" s="54" t="s">
+      <c r="Q31" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="R31" s="54" t="s">
+      <c r="R31" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="S31" s="54" t="s">
+      <c r="S31" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="T31" s="54"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="54" t="s">
+      <c r="T31" s="75"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="75" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8297,667 +8267,619 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="70" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="49">
+    <row r="116" spans="1:23" s="82" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="70">
         <v>152</v>
       </c>
-      <c r="B116" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C116" s="50" t="s">
+      <c r="B116" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="49" t="s">
+      <c r="D116" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="F116" s="52">
-        <v>46038</v>
-      </c>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="53"/>
-      <c r="J116" s="54" t="s">
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="K116" s="54" t="s">
+      <c r="K116" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="L116" s="54" t="s">
+      <c r="L116" s="75"/>
+      <c r="M116" s="75"/>
+      <c r="N116" s="75"/>
+      <c r="O116" s="75"/>
+      <c r="P116" s="75"/>
+      <c r="Q116" s="75"/>
+      <c r="R116" s="75"/>
+      <c r="S116" s="75"/>
+      <c r="T116" s="75"/>
+      <c r="U116" s="77"/>
+      <c r="V116" s="80"/>
+      <c r="W116" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" s="74" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="70">
+        <v>154</v>
+      </c>
+      <c r="B117" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="K117" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="L117" s="75"/>
+      <c r="M117" s="75"/>
+      <c r="N117" s="75"/>
+      <c r="O117" s="75"/>
+      <c r="P117" s="75"/>
+      <c r="Q117" s="75"/>
+      <c r="R117" s="75"/>
+      <c r="S117" s="75"/>
+      <c r="T117" s="75"/>
+      <c r="U117" s="77"/>
+      <c r="V117" s="80"/>
+      <c r="W117" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" s="74" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="70">
+        <v>155</v>
+      </c>
+      <c r="B118" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E118" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="K118" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="L118" s="75"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="75"/>
+      <c r="O118" s="75"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
+      <c r="R118" s="75"/>
+      <c r="S118" s="75"/>
+      <c r="T118" s="75"/>
+      <c r="U118" s="77"/>
+      <c r="V118" s="80"/>
+      <c r="W118" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" s="74" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="70">
+        <v>156</v>
+      </c>
+      <c r="B119" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E119" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="81"/>
+      <c r="J119" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="K119" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="L119" s="75"/>
+      <c r="M119" s="75"/>
+      <c r="N119" s="75"/>
+      <c r="O119" s="75"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
+      <c r="R119" s="75"/>
+      <c r="S119" s="75"/>
+      <c r="T119" s="75"/>
+      <c r="U119" s="77"/>
+      <c r="V119" s="80"/>
+      <c r="W119" s="75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="49">
+        <v>159</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K120" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="L120" s="54"/>
+      <c r="M120" s="54"/>
+      <c r="N120" s="54"/>
+      <c r="O120" s="54"/>
+      <c r="P120" s="54"/>
+      <c r="Q120" s="54"/>
+      <c r="R120" s="54"/>
+      <c r="S120" s="54"/>
+      <c r="T120" s="54"/>
+      <c r="U120" s="55"/>
+      <c r="W120" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="49">
+        <v>160</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K121" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="54"/>
+      <c r="P121" s="54"/>
+      <c r="Q121" s="54"/>
+      <c r="R121" s="54"/>
+      <c r="S121" s="54"/>
+      <c r="T121" s="54"/>
+      <c r="U121" s="55"/>
+      <c r="V121" s="56"/>
+      <c r="W121" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="49">
+        <v>161</v>
+      </c>
+      <c r="B122" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K122" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="L122" s="54"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="54"/>
+      <c r="O122" s="54"/>
+      <c r="P122" s="54"/>
+      <c r="Q122" s="54"/>
+      <c r="R122" s="54"/>
+      <c r="S122" s="54"/>
+      <c r="T122" s="54"/>
+      <c r="U122" s="55"/>
+      <c r="V122" s="56"/>
+      <c r="W122" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="49">
+        <v>162</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K123" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
+      <c r="P123" s="54"/>
+      <c r="Q123" s="54"/>
+      <c r="R123" s="54"/>
+      <c r="S123" s="54"/>
+      <c r="T123" s="54"/>
+      <c r="U123" s="55"/>
+      <c r="V123" s="56"/>
+      <c r="W123" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="49">
+        <v>163</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E124" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K124" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="L124" s="54"/>
+      <c r="M124" s="54"/>
+      <c r="N124" s="54"/>
+      <c r="O124" s="54"/>
+      <c r="P124" s="54"/>
+      <c r="Q124" s="54"/>
+      <c r="R124" s="54"/>
+      <c r="S124" s="54"/>
+      <c r="T124" s="54"/>
+      <c r="U124" s="55"/>
+      <c r="V124" s="56"/>
+      <c r="W124" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="49">
+        <v>164</v>
+      </c>
+      <c r="B125" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E125" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K125" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="L125" s="54"/>
+      <c r="M125" s="54"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="54"/>
+      <c r="P125" s="54"/>
+      <c r="Q125" s="54"/>
+      <c r="R125" s="54"/>
+      <c r="S125" s="54"/>
+      <c r="T125" s="54"/>
+      <c r="U125" s="55"/>
+      <c r="V125" s="56"/>
+      <c r="W125" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="49">
+        <v>165</v>
+      </c>
+      <c r="B126" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E126" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K126" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="L126" s="54"/>
+      <c r="M126" s="54"/>
+      <c r="N126" s="54"/>
+      <c r="O126" s="54"/>
+      <c r="P126" s="54"/>
+      <c r="Q126" s="54"/>
+      <c r="R126" s="54"/>
+      <c r="S126" s="54"/>
+      <c r="T126" s="54"/>
+      <c r="U126" s="55"/>
+      <c r="V126" s="56"/>
+      <c r="W126" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="49">
+        <v>166</v>
+      </c>
+      <c r="B127" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K127" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="L127" s="54"/>
+      <c r="M127" s="54"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
+      <c r="P127" s="54"/>
+      <c r="Q127" s="54"/>
+      <c r="R127" s="54"/>
+      <c r="S127" s="54"/>
+      <c r="T127" s="54"/>
+      <c r="U127" s="55"/>
+      <c r="V127" s="56"/>
+      <c r="W127" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="49">
+        <v>167</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E128" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K128" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="L128" s="54"/>
+      <c r="M128" s="54"/>
+      <c r="N128" s="54"/>
+      <c r="O128" s="54"/>
+      <c r="P128" s="54"/>
+      <c r="Q128" s="54"/>
+      <c r="R128" s="54"/>
+      <c r="S128" s="54"/>
+      <c r="T128" s="54"/>
+      <c r="U128" s="55"/>
+      <c r="V128" s="56"/>
+      <c r="W128" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="49">
+        <v>168</v>
+      </c>
+      <c r="B129" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E129" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K129" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="L129" s="54"/>
+      <c r="M129" s="54"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="54"/>
+      <c r="P129" s="54"/>
+      <c r="Q129" s="54"/>
+      <c r="R129" s="54"/>
+      <c r="S129" s="54"/>
+      <c r="T129" s="54"/>
+      <c r="U129" s="55"/>
+      <c r="V129" s="56"/>
+      <c r="W129" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="49">
+        <v>169</v>
+      </c>
+      <c r="B130" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E130" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K130" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="L130" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="54"/>
-      <c r="P116" s="54"/>
-      <c r="Q116" s="54"/>
-      <c r="R116" s="54"/>
-      <c r="S116" s="54"/>
-      <c r="T116" s="54"/>
-      <c r="U116" s="55"/>
-      <c r="V116" s="64"/>
-      <c r="W116" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" s="56" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="49">
-        <v>154</v>
-      </c>
-      <c r="B117" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="E117" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="F117" s="52">
-        <v>46038</v>
-      </c>
-      <c r="G117" s="52"/>
-      <c r="H117" s="52"/>
-      <c r="I117" s="53"/>
-      <c r="J117" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="K117" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="L117" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="M117" s="54"/>
-      <c r="N117" s="54"/>
-      <c r="O117" s="54"/>
-      <c r="P117" s="54"/>
-      <c r="Q117" s="54"/>
-      <c r="R117" s="54"/>
-      <c r="S117" s="54"/>
-      <c r="T117" s="54"/>
-      <c r="U117" s="55"/>
-      <c r="V117" s="64"/>
-      <c r="W117" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" s="56" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="49">
-        <v>155</v>
-      </c>
-      <c r="B118" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E118" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="F118" s="52">
-        <v>46038</v>
-      </c>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="K118" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="L118" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="M118" s="54"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="54"/>
-      <c r="P118" s="54"/>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="54"/>
-      <c r="S118" s="54"/>
-      <c r="T118" s="54"/>
-      <c r="U118" s="55"/>
-      <c r="V118" s="64"/>
-      <c r="W118" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" s="56" customFormat="1" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="49">
-        <v>156</v>
-      </c>
-      <c r="B119" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="E119" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="F119" s="52">
-        <v>46038</v>
-      </c>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="53"/>
-      <c r="J119" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="K119" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="L119" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
-      <c r="O119" s="54"/>
-      <c r="P119" s="54"/>
-      <c r="Q119" s="54"/>
-      <c r="R119" s="54"/>
-      <c r="S119" s="54"/>
-      <c r="T119" s="54"/>
-      <c r="U119" s="55"/>
-      <c r="V119" s="64"/>
-      <c r="W119" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="57">
-        <v>159</v>
-      </c>
-      <c r="B120" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E120" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F120" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G120" s="60"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K120" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="L120" s="62" t="s">
-        <v>464</v>
-      </c>
-      <c r="M120" s="62"/>
-      <c r="N120" s="62"/>
-      <c r="O120" s="62"/>
-      <c r="P120" s="62"/>
-      <c r="Q120" s="62"/>
-      <c r="R120" s="62"/>
-      <c r="S120" s="62"/>
-      <c r="T120" s="62"/>
-      <c r="U120" s="63"/>
-      <c r="W120" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="57">
-        <v>160</v>
-      </c>
-      <c r="B121" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="E121" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F121" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K121" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="L121" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="M121" s="62"/>
-      <c r="N121" s="62"/>
-      <c r="O121" s="62"/>
-      <c r="P121" s="62"/>
-      <c r="Q121" s="62"/>
-      <c r="R121" s="62"/>
-      <c r="S121" s="62"/>
-      <c r="T121" s="62"/>
-      <c r="U121" s="63"/>
-      <c r="V121" s="65"/>
-      <c r="W121" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="57">
-        <v>161</v>
-      </c>
-      <c r="B122" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C122" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E122" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="F122" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G122" s="60"/>
-      <c r="H122" s="60"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K122" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="L122" s="62" t="s">
-        <v>466</v>
-      </c>
-      <c r="M122" s="62"/>
-      <c r="N122" s="62"/>
-      <c r="O122" s="62"/>
-      <c r="P122" s="62"/>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="62"/>
-      <c r="S122" s="62"/>
-      <c r="T122" s="62"/>
-      <c r="U122" s="63"/>
-      <c r="V122" s="65"/>
-      <c r="W122" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="57">
-        <v>162</v>
-      </c>
-      <c r="B123" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="E123" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="F123" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G123" s="60"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K123" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="L123" s="62" t="s">
-        <v>467</v>
-      </c>
-      <c r="M123" s="62"/>
-      <c r="N123" s="62"/>
-      <c r="O123" s="62"/>
-      <c r="P123" s="62"/>
-      <c r="Q123" s="62"/>
-      <c r="R123" s="62"/>
-      <c r="S123" s="62"/>
-      <c r="T123" s="62"/>
-      <c r="U123" s="63"/>
-      <c r="V123" s="65"/>
-      <c r="W123" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="57">
-        <v>163</v>
-      </c>
-      <c r="B124" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="E124" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="F124" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G124" s="60"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K124" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="L124" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="M124" s="62"/>
-      <c r="N124" s="62"/>
-      <c r="O124" s="62"/>
-      <c r="P124" s="62"/>
-      <c r="Q124" s="62"/>
-      <c r="R124" s="62"/>
-      <c r="S124" s="62"/>
-      <c r="T124" s="62"/>
-      <c r="U124" s="63"/>
-      <c r="V124" s="65"/>
-      <c r="W124" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="57">
-        <v>164</v>
-      </c>
-      <c r="B125" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="E125" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="F125" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G125" s="60"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K125" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="L125" s="62"/>
-      <c r="M125" s="62"/>
-      <c r="N125" s="62"/>
-      <c r="O125" s="62"/>
-      <c r="P125" s="62"/>
-      <c r="Q125" s="62"/>
-      <c r="R125" s="62"/>
-      <c r="S125" s="62"/>
-      <c r="T125" s="62"/>
-      <c r="U125" s="63"/>
-      <c r="V125" s="65"/>
-      <c r="W125" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="57">
-        <v>165</v>
-      </c>
-      <c r="B126" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C126" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="E126" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="F126" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="61"/>
-      <c r="J126" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K126" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
-      <c r="N126" s="62"/>
-      <c r="O126" s="62"/>
-      <c r="P126" s="62"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="62"/>
-      <c r="S126" s="62"/>
-      <c r="T126" s="62"/>
-      <c r="U126" s="63"/>
-      <c r="V126" s="65"/>
-      <c r="W126" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="57">
-        <v>166</v>
-      </c>
-      <c r="B127" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="E127" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="F127" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G127" s="60"/>
-      <c r="H127" s="60"/>
-      <c r="I127" s="61"/>
-      <c r="J127" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K127" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
-      <c r="N127" s="62"/>
-      <c r="O127" s="62"/>
-      <c r="P127" s="62"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="62"/>
-      <c r="S127" s="62"/>
-      <c r="T127" s="62"/>
-      <c r="U127" s="63"/>
-      <c r="V127" s="65"/>
-      <c r="W127" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="57">
-        <v>167</v>
-      </c>
-      <c r="B128" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E128" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F128" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G128" s="60"/>
-      <c r="H128" s="60"/>
-      <c r="I128" s="61"/>
-      <c r="J128" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K128" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="L128" s="62"/>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
-      <c r="O128" s="62"/>
-      <c r="P128" s="62"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="62"/>
-      <c r="S128" s="62"/>
-      <c r="T128" s="62"/>
-      <c r="U128" s="63"/>
-      <c r="V128" s="65"/>
-      <c r="W128" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="57">
-        <v>168</v>
-      </c>
-      <c r="B129" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="E129" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="F129" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="61"/>
-      <c r="J129" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K129" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="L129" s="62"/>
-      <c r="M129" s="62"/>
-      <c r="N129" s="62"/>
-      <c r="O129" s="62"/>
-      <c r="P129" s="62"/>
-      <c r="Q129" s="62"/>
-      <c r="R129" s="62"/>
-      <c r="S129" s="62"/>
-      <c r="T129" s="62"/>
-      <c r="U129" s="63"/>
-      <c r="V129" s="65"/>
-      <c r="W129" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="57">
-        <v>169</v>
-      </c>
-      <c r="B130" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="E130" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F130" s="60">
-        <v>46038</v>
-      </c>
-      <c r="G130" s="60"/>
-      <c r="H130" s="60"/>
-      <c r="I130" s="61"/>
-      <c r="J130" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="K130" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="L130" s="62" t="s">
-        <v>468</v>
-      </c>
-      <c r="M130" s="62"/>
-      <c r="N130" s="62"/>
-      <c r="O130" s="62"/>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="62"/>
-      <c r="R130" s="62"/>
-      <c r="S130" s="62"/>
-      <c r="T130" s="62"/>
-      <c r="U130" s="63"/>
-      <c r="V130" s="65"/>
-      <c r="W130" s="62" t="s">
+      <c r="M130" s="54"/>
+      <c r="N130" s="54"/>
+      <c r="O130" s="54"/>
+      <c r="P130" s="54"/>
+      <c r="Q130" s="54"/>
+      <c r="R130" s="54"/>
+      <c r="S130" s="54"/>
+      <c r="T130" s="54"/>
+      <c r="U130" s="55"/>
+      <c r="V130" s="56"/>
+      <c r="W130" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10182,113 +10104,113 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="57">
+    <row r="164" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="49">
         <v>448</v>
       </c>
-      <c r="B164" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="58" t="s">
+      <c r="B164" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D164" s="57" t="s">
+      <c r="D164" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="E164" s="59" t="s">
+      <c r="E164" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="F164" s="60">
+      <c r="F164" s="52">
         <v>46038</v>
       </c>
-      <c r="G164" s="60" t="s">
+      <c r="G164" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="H164" s="60" t="s">
+      <c r="H164" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="I164" s="61" t="s">
+      <c r="I164" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="J164" s="62" t="s">
+      <c r="J164" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K164" s="62"/>
-      <c r="L164" s="62"/>
-      <c r="M164" s="62"/>
-      <c r="N164" s="62"/>
-      <c r="O164" s="62"/>
-      <c r="P164" s="62" t="s">
+      <c r="K164" s="54"/>
+      <c r="L164" s="54"/>
+      <c r="M164" s="54"/>
+      <c r="N164" s="54"/>
+      <c r="O164" s="54"/>
+      <c r="P164" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="Q164" s="62" t="s">
+      <c r="Q164" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="R164" s="62" t="s">
+      <c r="R164" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="S164" s="62"/>
-      <c r="T164" s="62" t="s">
+      <c r="S164" s="54"/>
+      <c r="T164" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="U164" s="63"/>
-      <c r="V164" s="65"/>
-      <c r="W164" s="62" t="s">
+      <c r="U164" s="55"/>
+      <c r="V164" s="56"/>
+      <c r="W164" s="54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="57">
+    <row r="165" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="49">
         <v>449</v>
       </c>
-      <c r="B165" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C165" s="58" t="s">
+      <c r="B165" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D165" s="57" t="s">
+      <c r="D165" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="E165" s="59" t="s">
+      <c r="E165" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="F165" s="60">
+      <c r="F165" s="52">
         <v>46038</v>
       </c>
-      <c r="G165" s="60" t="s">
+      <c r="G165" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="H165" s="60" t="s">
+      <c r="H165" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="I165" s="61" t="s">
+      <c r="I165" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="J165" s="62" t="s">
+      <c r="J165" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K165" s="62"/>
-      <c r="L165" s="62"/>
-      <c r="M165" s="62"/>
-      <c r="N165" s="62"/>
-      <c r="O165" s="62"/>
-      <c r="P165" s="62" t="s">
+      <c r="K165" s="54"/>
+      <c r="L165" s="54"/>
+      <c r="M165" s="54"/>
+      <c r="N165" s="54"/>
+      <c r="O165" s="54"/>
+      <c r="P165" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="Q165" s="62" t="s">
+      <c r="Q165" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="R165" s="62" t="s">
+      <c r="R165" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="S165" s="62"/>
-      <c r="T165" s="62" t="s">
+      <c r="S165" s="54"/>
+      <c r="T165" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="U165" s="63"/>
-      <c r="V165" s="65"/>
-      <c r="W165" s="62" t="s">
+      <c r="U165" s="55"/>
+      <c r="V165" s="56"/>
+      <c r="W165" s="54" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10662,44 +10584,44 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="57">
+    <row r="176" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="49">
         <v>461</v>
       </c>
-      <c r="B176" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C176" s="58" t="s">
+      <c r="B176" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D176" s="57" t="s">
+      <c r="D176" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="E176" s="59" t="s">
+      <c r="E176" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="F176" s="57"/>
-      <c r="G176" s="57"/>
-      <c r="H176" s="57"/>
-      <c r="I176" s="57"/>
-      <c r="J176" s="62" t="s">
+      <c r="F176" s="49"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="49"/>
+      <c r="I176" s="49"/>
+      <c r="J176" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="K176" s="62" t="s">
+      <c r="K176" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="L176" s="57"/>
-      <c r="M176" s="62"/>
-      <c r="N176" s="62"/>
-      <c r="O176" s="57"/>
-      <c r="P176" s="62"/>
-      <c r="Q176" s="62"/>
-      <c r="R176" s="62"/>
-      <c r="S176" s="57"/>
-      <c r="T176" s="62"/>
-      <c r="U176" s="57"/>
-      <c r="V176" s="57"/>
-      <c r="W176" s="57" t="s">
+      <c r="L176" s="49"/>
+      <c r="M176" s="54"/>
+      <c r="N176" s="54"/>
+      <c r="O176" s="49"/>
+      <c r="P176" s="54"/>
+      <c r="Q176" s="54"/>
+      <c r="R176" s="54"/>
+      <c r="S176" s="49"/>
+      <c r="T176" s="54"/>
+      <c r="U176" s="49"/>
+      <c r="V176" s="49"/>
+      <c r="W176" s="49" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10925,46 +10847,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:23" s="66" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="57">
+    <row r="183" spans="1:23" s="57" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="49">
         <v>468</v>
       </c>
-      <c r="B183" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C183" s="58" t="s">
+      <c r="B183" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D183" s="57" t="s">
+      <c r="D183" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="E183" s="59" t="s">
+      <c r="E183" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="F183" s="57"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57"/>
-      <c r="I183" s="57"/>
-      <c r="J183" s="62" t="s">
+      <c r="F183" s="49"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="49"/>
+      <c r="I183" s="49"/>
+      <c r="J183" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="K183" s="62" t="s">
+      <c r="K183" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="L183" s="57" t="s">
-        <v>469</v>
-      </c>
-      <c r="M183" s="62"/>
-      <c r="N183" s="62"/>
-      <c r="O183" s="57"/>
-      <c r="P183" s="62"/>
-      <c r="Q183" s="62"/>
-      <c r="R183" s="62"/>
-      <c r="S183" s="57"/>
-      <c r="T183" s="62"/>
-      <c r="U183" s="57"/>
-      <c r="V183" s="57"/>
-      <c r="W183" s="57" t="s">
+      <c r="L183" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="M183" s="54"/>
+      <c r="N183" s="54"/>
+      <c r="O183" s="49"/>
+      <c r="P183" s="54"/>
+      <c r="Q183" s="54"/>
+      <c r="R183" s="54"/>
+      <c r="S183" s="49"/>
+      <c r="T183" s="54"/>
+      <c r="U183" s="49"/>
+      <c r="V183" s="49"/>
+      <c r="W183" s="49" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11190,46 +11112,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:23" s="66" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="57">
+    <row r="190" spans="1:23" s="57" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="49">
         <v>475</v>
       </c>
-      <c r="B190" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="58" t="s">
+      <c r="B190" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D190" s="57" t="s">
+      <c r="D190" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="E190" s="59" t="s">
+      <c r="E190" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="F190" s="60"/>
-      <c r="G190" s="60"/>
-      <c r="H190" s="60"/>
-      <c r="I190" s="61"/>
-      <c r="J190" s="62" t="s">
+      <c r="F190" s="52"/>
+      <c r="G190" s="52"/>
+      <c r="H190" s="52"/>
+      <c r="I190" s="53"/>
+      <c r="J190" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="K190" s="62" t="s">
+      <c r="K190" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="L190" s="62" t="s">
-        <v>470</v>
-      </c>
-      <c r="M190" s="62"/>
-      <c r="N190" s="62"/>
-      <c r="O190" s="62"/>
-      <c r="P190" s="62"/>
-      <c r="Q190" s="62"/>
-      <c r="R190" s="62"/>
-      <c r="S190" s="62"/>
-      <c r="T190" s="62"/>
-      <c r="U190" s="63"/>
-      <c r="V190" s="65"/>
-      <c r="W190" s="62" t="s">
+      <c r="L190" s="54" t="s">
+        <v>462</v>
+      </c>
+      <c r="M190" s="54"/>
+      <c r="N190" s="54"/>
+      <c r="O190" s="54"/>
+      <c r="P190" s="54"/>
+      <c r="Q190" s="54"/>
+      <c r="R190" s="54"/>
+      <c r="S190" s="54"/>
+      <c r="T190" s="54"/>
+      <c r="U190" s="55"/>
+      <c r="V190" s="56"/>
+      <c r="W190" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -17591,21 +17513,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17749,10 +17656,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17775,19 +17707,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
